--- a/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
+++ b/REGULAR/CCT/PETIL, GLENDA DE VILLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="356">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1092,6 +1092,15 @@
   </si>
   <si>
     <t>9/15,21/2023</t>
+  </si>
+  <si>
+    <t>10/6,9,10/2023</t>
+  </si>
+  <si>
+    <t>10/19,20,24/2023</t>
+  </si>
+  <si>
+    <t>12/26-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,6 +1527,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1796,7 +1808,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K553" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K555" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2125,12 +2137,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K553"/>
+  <dimension ref="A2:K555"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A532" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A541" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="J552" sqref="J552"/>
+      <selection pane="bottomLeft" activeCell="K555" sqref="K555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2303,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>163.29199999999997</v>
+        <v>161.79199999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2301,7 +2313,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>201.625</v>
+        <v>196.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14364,7 +14376,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <f t="shared" ref="A538:A552" si="6">EDATE(A537,1)</f>
+        <f t="shared" ref="A538:A554" si="6">EDATE(A537,1)</f>
         <v>44986</v>
       </c>
       <c r="B538" s="20" t="s">
@@ -14650,11 +14662,10 @@
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A550" s="40">
-        <f t="shared" si="6"/>
-        <v>45200</v>
-      </c>
-      <c r="B550" s="20"/>
+      <c r="A550" s="40"/>
+      <c r="B550" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C550" s="13"/>
       <c r="D550" s="39"/>
       <c r="E550" s="9"/>
@@ -14663,36 +14674,47 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H550" s="39"/>
+      <c r="H550" s="39">
+        <v>1</v>
+      </c>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="20"/>
+      <c r="K550" s="49">
+        <v>45195</v>
+      </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <f t="shared" si="6"/>
-        <v>45231</v>
-      </c>
-      <c r="B551" s="20"/>
-      <c r="C551" s="13"/>
+        <f>EDATE(A549,1)</f>
+        <v>45200</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C551" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D551" s="39"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H551" s="39"/>
+      <c r="G551" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H551" s="39">
+        <v>3</v>
+      </c>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
+      <c r="K551" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="40">
-        <f t="shared" si="6"/>
-        <v>45261</v>
-      </c>
-      <c r="B552" s="20"/>
+      <c r="A552" s="40"/>
+      <c r="B552" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C552" s="13"/>
       <c r="D552" s="39"/>
       <c r="E552" s="9"/>
@@ -14701,26 +14723,82 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H552" s="39"/>
+      <c r="H552" s="39">
+        <v>3</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
+      <c r="K552" s="20" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="41"/>
-      <c r="B553" s="15"/>
-      <c r="C553" s="42"/>
-      <c r="D553" s="43"/>
+      <c r="A553" s="40">
+        <f>EDATE(A551,1)</f>
+        <v>45231</v>
+      </c>
+      <c r="B553" s="20"/>
+      <c r="C553" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D553" s="39"/>
       <c r="E553" s="9"/>
-      <c r="F553" s="15"/>
-      <c r="G553" s="42" t="str">
+      <c r="F553" s="20"/>
+      <c r="G553" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H553" s="39"/>
+      <c r="I553" s="9"/>
+      <c r="J553" s="11"/>
+      <c r="K553" s="20"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A554" s="40">
+        <f t="shared" si="6"/>
+        <v>45261</v>
+      </c>
+      <c r="B554" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C554" s="13"/>
+      <c r="D554" s="39">
+        <v>4</v>
+      </c>
+      <c r="E554" s="9"/>
+      <c r="F554" s="20"/>
+      <c r="G554" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H553" s="43"/>
-      <c r="I553" s="9"/>
-      <c r="J553" s="12"/>
-      <c r="K553" s="15"/>
+      <c r="H554" s="39"/>
+      <c r="I554" s="9"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="41"/>
+      <c r="B555" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C555" s="42"/>
+      <c r="D555" s="43"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="15"/>
+      <c r="G555" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H555" s="43">
+        <v>1</v>
+      </c>
+      <c r="I555" s="9"/>
+      <c r="J555" s="12"/>
+      <c r="K555" s="63">
+        <v>45264</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14766,7 +14844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -14887,7 +14965,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>364.91699999999997</v>
+        <v>357.91699999999997</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
